--- a/Översikt HELSINGBORG.xlsx
+++ b/Översikt HELSINGBORG.xlsx
@@ -575,7 +575,7 @@
         <v>45922</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>45005</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -757,7 +757,7 @@
         <v>45195</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -842,7 +842,7 @@
         <v>44725.64246527778</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -892,14 +892,14 @@
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A 5792-2024</t>
+          <t>A 2593-2024</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>45335</v>
+        <v>45313.69204861111</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -912,7 +912,7 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>5.6</v>
+        <v>2.3</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -949,14 +949,14 @@
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A 13651-2023</t>
+          <t>A 12651-2022</t>
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>45006</v>
+        <v>44641</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -969,7 +969,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.2</v>
+        <v>3.2</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1006,14 +1006,14 @@
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A 8194-2025</t>
+          <t>A 5792-2024</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>45708</v>
+        <v>45335</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.9</v>
+        <v>5.6</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1063,14 +1063,14 @@
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 12651-2022</t>
+          <t>A 8194-2025</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>44641</v>
+        <v>45708</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1083,7 +1083,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>3.2</v>
+        <v>1.9</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1120,14 +1120,14 @@
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 50997-2025</t>
+          <t>A 13651-2023</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>45946</v>
+        <v>45006</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1140,7 +1140,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.5</v>
+        <v>2.2</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1177,14 +1177,14 @@
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 2593-2024</t>
+          <t>A 50997-2025</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>45313.69204861111</v>
+        <v>45946</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.3</v>
+        <v>1.5</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1234,14 +1234,14 @@
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 7333-2025</t>
+          <t>A 35642-2023</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>45703.35899305555</v>
+        <v>45147</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1254,7 +1254,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1291,14 +1291,14 @@
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 35642-2023</t>
+          <t>A 28288-2023</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>45147</v>
+        <v>45099.6349537037</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1311,7 +1311,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.2</v>
+        <v>0.5</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1348,14 +1348,14 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 28288-2023</t>
+          <t>A 7333-2025</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>45099.6349537037</v>
+        <v>45703.35899305555</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1368,7 +1368,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>

--- a/Översikt HELSINGBORG.xlsx
+++ b/Översikt HELSINGBORG.xlsx
@@ -575,7 +575,7 @@
         <v>45922</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>45005</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -757,7 +757,7 @@
         <v>45195</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -842,7 +842,7 @@
         <v>44725.64246527778</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -899,7 +899,7 @@
         <v>45313.69204861111</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -956,7 +956,7 @@
         <v>44641</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1013,7 +1013,7 @@
         <v>45335</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1070,7 +1070,7 @@
         <v>45708</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1127,7 +1127,7 @@
         <v>45006</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1184,7 +1184,7 @@
         <v>45946</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1241,7 +1241,7 @@
         <v>45147</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1298,7 +1298,7 @@
         <v>45099.6349537037</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1355,7 +1355,7 @@
         <v>45703.35899305555</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>

--- a/Översikt HELSINGBORG.xlsx
+++ b/Översikt HELSINGBORG.xlsx
@@ -575,7 +575,7 @@
         <v>45922</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>45005</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -757,7 +757,7 @@
         <v>45195</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -842,7 +842,7 @@
         <v>44725.64246527778</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -899,7 +899,7 @@
         <v>45313.69204861111</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -956,7 +956,7 @@
         <v>44641</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1013,7 +1013,7 @@
         <v>45335</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1070,7 +1070,7 @@
         <v>45708</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1127,7 +1127,7 @@
         <v>45006</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1184,7 +1184,7 @@
         <v>45946</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1241,7 +1241,7 @@
         <v>45147</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1298,7 +1298,7 @@
         <v>45099.6349537037</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1355,7 +1355,7 @@
         <v>45703.35899305555</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>

--- a/Översikt HELSINGBORG.xlsx
+++ b/Översikt HELSINGBORG.xlsx
@@ -421,7 +421,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z14"/>
+  <dimension ref="A1:Z16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -575,7 +575,7 @@
         <v>45922</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>45005</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -757,7 +757,7 @@
         <v>45195</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -842,7 +842,7 @@
         <v>44725.64246527778</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -892,14 +892,14 @@
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A 2593-2024</t>
+          <t>A 5792-2024</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>45313.69204861111</v>
+        <v>45335</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -912,7 +912,7 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.3</v>
+        <v>5.6</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -956,7 +956,7 @@
         <v>44641</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1006,14 +1006,14 @@
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A 5792-2024</t>
+          <t>A 2593-2024</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>45335</v>
+        <v>45313.69204861111</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>5.6</v>
+        <v>2.3</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1063,14 +1063,14 @@
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 8194-2025</t>
+          <t>A 7333-2025</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>45708</v>
+        <v>45703.35899305555</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1083,7 +1083,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.9</v>
+        <v>0.9</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1120,14 +1120,14 @@
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 13651-2023</t>
+          <t>A 35642-2023</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>45006</v>
+        <v>45147</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1140,7 +1140,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.2</v>
+        <v>1.2</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1177,14 +1177,14 @@
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 50997-2025</t>
+          <t>A 28288-2023</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>45946</v>
+        <v>45099.6349537037</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1234,14 +1234,14 @@
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 35642-2023</t>
+          <t>A 8194-2025</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>45147</v>
+        <v>45708</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1254,7 +1254,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.2</v>
+        <v>1.9</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1291,14 +1291,14 @@
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 28288-2023</t>
+          <t>A 50997-2025</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>45099.6349537037</v>
+        <v>45946</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1311,7 +1311,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1345,17 +1345,17 @@
       </c>
       <c r="R13" s="2" t="inlineStr"/>
     </row>
-    <row r="14">
+    <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 7333-2025</t>
+          <t>A 13651-2023</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>45703.35899305555</v>
+        <v>45006</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1368,7 +1368,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>0.9</v>
+        <v>2.2</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1401,6 +1401,120 @@
         <v>0</v>
       </c>
       <c r="R14" s="2" t="inlineStr"/>
+    </row>
+    <row r="15" ht="15" customHeight="1">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>A 7814-2026</t>
+        </is>
+      </c>
+      <c r="B15" s="1" t="n">
+        <v>46062.61388888889</v>
+      </c>
+      <c r="C15" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>HELSINGBORG</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R15" s="2" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>A 7827-2026</t>
+        </is>
+      </c>
+      <c r="B16" s="1" t="n">
+        <v>46062.63958333333</v>
+      </c>
+      <c r="C16" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>HELSINGBORG</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0</v>
+      </c>
+      <c r="R16" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt HELSINGBORG.xlsx
+++ b/Översikt HELSINGBORG.xlsx
@@ -575,7 +575,7 @@
         <v>45922</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>45005</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -757,7 +757,7 @@
         <v>45195</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -842,7 +842,7 @@
         <v>44725.64246527778</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -892,14 +892,14 @@
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A 5792-2024</t>
+          <t>A 2593-2024</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>45335</v>
+        <v>45313.69204861111</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -912,7 +912,7 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>5.6</v>
+        <v>2.3</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -956,7 +956,7 @@
         <v>44641</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1006,14 +1006,14 @@
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A 2593-2024</t>
+          <t>A 5792-2024</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>45313.69204861111</v>
+        <v>45335</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.3</v>
+        <v>5.6</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1063,14 +1063,14 @@
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 7333-2025</t>
+          <t>A 13651-2023</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>45703.35899305555</v>
+        <v>45006</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1083,7 +1083,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>0.9</v>
+        <v>2.2</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1120,14 +1120,14 @@
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 35642-2023</t>
+          <t>A 8194-2025</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>45147</v>
+        <v>45708</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1140,7 +1140,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.2</v>
+        <v>1.9</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1177,14 +1177,14 @@
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 28288-2023</t>
+          <t>A 50997-2025</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>45099.6349537037</v>
+        <v>45946</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1234,14 +1234,14 @@
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 8194-2025</t>
+          <t>A 35642-2023</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>45708</v>
+        <v>45147</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1254,7 +1254,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.9</v>
+        <v>1.2</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1291,14 +1291,14 @@
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 50997-2025</t>
+          <t>A 7827-2026</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>45946</v>
+        <v>46062.63958333333</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1311,7 +1311,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1348,14 +1348,14 @@
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 13651-2023</t>
+          <t>A 7814-2026</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>45006</v>
+        <v>46062.61388888889</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1368,7 +1368,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.2</v>
+        <v>1.1</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1405,14 +1405,14 @@
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 7814-2026</t>
+          <t>A 28288-2023</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>46062.61388888889</v>
+        <v>45099.6349537037</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1425,7 +1425,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.1</v>
+        <v>0.5</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1462,14 +1462,14 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 7827-2026</t>
+          <t>A 7333-2025</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>46062.63958333333</v>
+        <v>45703.35899305555</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1482,7 +1482,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.1</v>
+        <v>0.9</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>

--- a/Översikt HELSINGBORG.xlsx
+++ b/Översikt HELSINGBORG.xlsx
@@ -568,14 +568,14 @@
     <row r="2" ht="15" customHeight="1">
       <c r="A2" t="inlineStr">
         <is>
-          <t>A 45325-2025</t>
+          <t>A 13467-2023</t>
         </is>
       </c>
       <c r="B2" s="1" t="n">
-        <v>45922</v>
+        <v>45005</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -588,16 +588,16 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.6</v>
+        <v>2.3</v>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -612,7 +612,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -621,6 +621,99 @@
         <v>5</v>
       </c>
       <c r="R2" s="2" t="inlineStr">
+        <is>
+          <t>Gulsparv
+Hypoxylon petriniae
+Kråka
+Grå skärelav
+Gulnål</t>
+        </is>
+      </c>
+      <c r="S2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1283/artfynd/A 13467-2023 artfynd.xlsx", "A 13467-2023")</f>
+        <v/>
+      </c>
+      <c r="T2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1283/kartor/A 13467-2023 karta.png", "A 13467-2023")</f>
+        <v/>
+      </c>
+      <c r="V2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1283/klagomål/A 13467-2023 FSC-klagomål.docx", "A 13467-2023")</f>
+        <v/>
+      </c>
+      <c r="W2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1283/klagomålsmail/A 13467-2023 FSC-klagomål mail.docx", "A 13467-2023")</f>
+        <v/>
+      </c>
+      <c r="X2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1283/tillsyn/A 13467-2023 tillsynsbegäran.docx", "A 13467-2023")</f>
+        <v/>
+      </c>
+      <c r="Y2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1283/tillsynsmail/A 13467-2023 tillsynsbegäran mail.docx", "A 13467-2023")</f>
+        <v/>
+      </c>
+      <c r="Z2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1283/fåglar/A 13467-2023 prioriterade fågelarter.docx", "A 13467-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3" ht="15" customHeight="1">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>A 45325-2025</t>
+        </is>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>45922</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>HELSINGBORG</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>5</v>
+      </c>
+      <c r="R3" s="2" t="inlineStr">
         <is>
           <t>Nordlig buksimmare
 Större vattensalamander
@@ -629,121 +722,28 @@
 Vanlig groda</t>
         </is>
       </c>
-      <c r="S2">
+      <c r="S3">
         <f>HYPERLINK("https://klasma.github.io/Logging_1283/artfynd/A 45325-2025 artfynd.xlsx", "A 45325-2025")</f>
         <v/>
       </c>
-      <c r="T2">
+      <c r="T3">
         <f>HYPERLINK("https://klasma.github.io/Logging_1283/kartor/A 45325-2025 karta.png", "A 45325-2025")</f>
         <v/>
       </c>
-      <c r="V2">
+      <c r="V3">
         <f>HYPERLINK("https://klasma.github.io/Logging_1283/klagomål/A 45325-2025 FSC-klagomål.docx", "A 45325-2025")</f>
         <v/>
       </c>
-      <c r="W2">
+      <c r="W3">
         <f>HYPERLINK("https://klasma.github.io/Logging_1283/klagomålsmail/A 45325-2025 FSC-klagomål mail.docx", "A 45325-2025")</f>
         <v/>
       </c>
-      <c r="X2">
+      <c r="X3">
         <f>HYPERLINK("https://klasma.github.io/Logging_1283/tillsyn/A 45325-2025 tillsynsbegäran.docx", "A 45325-2025")</f>
         <v/>
       </c>
-      <c r="Y2">
+      <c r="Y3">
         <f>HYPERLINK("https://klasma.github.io/Logging_1283/tillsynsmail/A 45325-2025 tillsynsbegäran mail.docx", "A 45325-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="3" ht="15" customHeight="1">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>A 13467-2023</t>
-        </is>
-      </c>
-      <c r="B3" s="1" t="n">
-        <v>45005</v>
-      </c>
-      <c r="C3" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>HELSINGBORG</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="H3" t="n">
-        <v>2</v>
-      </c>
-      <c r="I3" t="n">
-        <v>2</v>
-      </c>
-      <c r="J3" t="n">
-        <v>3</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>3</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>5</v>
-      </c>
-      <c r="R3" s="2" t="inlineStr">
-        <is>
-          <t>Gulsparv
-Hypoxylon petriniae
-Kråka
-Grå skärelav
-Gulnål</t>
-        </is>
-      </c>
-      <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1283/artfynd/A 13467-2023 artfynd.xlsx", "A 13467-2023")</f>
-        <v/>
-      </c>
-      <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1283/kartor/A 13467-2023 karta.png", "A 13467-2023")</f>
-        <v/>
-      </c>
-      <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1283/klagomål/A 13467-2023 FSC-klagomål.docx", "A 13467-2023")</f>
-        <v/>
-      </c>
-      <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1283/klagomålsmail/A 13467-2023 FSC-klagomål mail.docx", "A 13467-2023")</f>
-        <v/>
-      </c>
-      <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1283/tillsyn/A 13467-2023 tillsynsbegäran.docx", "A 13467-2023")</f>
-        <v/>
-      </c>
-      <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1283/tillsynsmail/A 13467-2023 tillsynsbegäran mail.docx", "A 13467-2023")</f>
-        <v/>
-      </c>
-      <c r="Z3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1283/fåglar/A 13467-2023 prioriterade fågelarter.docx", "A 13467-2023")</f>
         <v/>
       </c>
     </row>
@@ -757,7 +757,7 @@
         <v>45195</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -842,7 +842,7 @@
         <v>44725.64246527778</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -892,14 +892,14 @@
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A 2593-2024</t>
+          <t>A 5792-2024</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>45313.69204861111</v>
+        <v>45335</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -912,7 +912,7 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.3</v>
+        <v>5.6</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -949,14 +949,14 @@
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A 12651-2022</t>
+          <t>A 13651-2023</t>
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>44641</v>
+        <v>45006</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -969,7 +969,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>3.2</v>
+        <v>2.2</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1006,14 +1006,14 @@
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A 5792-2024</t>
+          <t>A 12651-2022</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>45335</v>
+        <v>44641</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>5.6</v>
+        <v>3.2</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1063,14 +1063,14 @@
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 13651-2023</t>
+          <t>A 2593-2024</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>45006</v>
+        <v>45313.69204861111</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1083,7 +1083,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1120,14 +1120,14 @@
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 8194-2025</t>
+          <t>A 7333-2025</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>45708</v>
+        <v>45703.35899305555</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1140,7 +1140,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.9</v>
+        <v>0.9</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1177,14 +1177,14 @@
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 50997-2025</t>
+          <t>A 35642-2023</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>45946</v>
+        <v>45147</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1234,14 +1234,14 @@
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 35642-2023</t>
+          <t>A 28288-2023</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>45147</v>
+        <v>45099.6349537037</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1254,7 +1254,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.2</v>
+        <v>0.5</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1291,14 +1291,14 @@
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 7827-2026</t>
+          <t>A 8194-2025</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>46062.63958333333</v>
+        <v>45708</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1311,7 +1311,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1348,14 +1348,14 @@
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 7814-2026</t>
+          <t>A 50997-2025</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>46062.61388888889</v>
+        <v>45946</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1368,7 +1368,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.1</v>
+        <v>1.5</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1405,14 +1405,14 @@
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 28288-2023</t>
+          <t>A 7814-2026</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>45099.6349537037</v>
+        <v>46062.61388888889</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1425,7 +1425,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>0.5</v>
+        <v>1.1</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1462,14 +1462,14 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 7333-2025</t>
+          <t>A 7827-2026</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>45703.35899305555</v>
+        <v>46062.63958333333</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1482,7 +1482,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>0.9</v>
+        <v>2.1</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>

--- a/Översikt HELSINGBORG.xlsx
+++ b/Översikt HELSINGBORG.xlsx
@@ -568,14 +568,14 @@
     <row r="2" ht="15" customHeight="1">
       <c r="A2" t="inlineStr">
         <is>
-          <t>A 13467-2023</t>
+          <t>A 45325-2025</t>
         </is>
       </c>
       <c r="B2" s="1" t="n">
-        <v>45005</v>
+        <v>45922</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -588,16 +588,16 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.3</v>
+        <v>1.6</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -612,7 +612,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -621,6 +621,95 @@
         <v>5</v>
       </c>
       <c r="R2" s="2" t="inlineStr">
+        <is>
+          <t>Nordlig buksimmare
+Större vattensalamander
+Åkergroda
+Mindre vattensalamander
+Vanlig groda</t>
+        </is>
+      </c>
+      <c r="S2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1283/artfynd/A 45325-2025 artfynd.xlsx", "A 45325-2025")</f>
+        <v/>
+      </c>
+      <c r="T2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1283/kartor/A 45325-2025 karta.png", "A 45325-2025")</f>
+        <v/>
+      </c>
+      <c r="V2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1283/klagomål/A 45325-2025 FSC-klagomål.docx", "A 45325-2025")</f>
+        <v/>
+      </c>
+      <c r="W2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1283/klagomålsmail/A 45325-2025 FSC-klagomål mail.docx", "A 45325-2025")</f>
+        <v/>
+      </c>
+      <c r="X2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1283/tillsyn/A 45325-2025 tillsynsbegäran.docx", "A 45325-2025")</f>
+        <v/>
+      </c>
+      <c r="Y2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1283/tillsynsmail/A 45325-2025 tillsynsbegäran mail.docx", "A 45325-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3" ht="15" customHeight="1">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>A 13467-2023</t>
+        </is>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>45005</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>46066</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>HELSINGBORG</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+      <c r="I3" t="n">
+        <v>2</v>
+      </c>
+      <c r="J3" t="n">
+        <v>3</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>3</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>5</v>
+      </c>
+      <c r="R3" s="2" t="inlineStr">
         <is>
           <t>Gulsparv
 Hypoxylon petriniae
@@ -629,121 +718,32 @@
 Gulnål</t>
         </is>
       </c>
-      <c r="S2">
+      <c r="S3">
         <f>HYPERLINK("https://klasma.github.io/Logging_1283/artfynd/A 13467-2023 artfynd.xlsx", "A 13467-2023")</f>
         <v/>
       </c>
-      <c r="T2">
+      <c r="T3">
         <f>HYPERLINK("https://klasma.github.io/Logging_1283/kartor/A 13467-2023 karta.png", "A 13467-2023")</f>
         <v/>
       </c>
-      <c r="V2">
+      <c r="V3">
         <f>HYPERLINK("https://klasma.github.io/Logging_1283/klagomål/A 13467-2023 FSC-klagomål.docx", "A 13467-2023")</f>
         <v/>
       </c>
-      <c r="W2">
+      <c r="W3">
         <f>HYPERLINK("https://klasma.github.io/Logging_1283/klagomålsmail/A 13467-2023 FSC-klagomål mail.docx", "A 13467-2023")</f>
         <v/>
       </c>
-      <c r="X2">
+      <c r="X3">
         <f>HYPERLINK("https://klasma.github.io/Logging_1283/tillsyn/A 13467-2023 tillsynsbegäran.docx", "A 13467-2023")</f>
         <v/>
       </c>
-      <c r="Y2">
+      <c r="Y3">
         <f>HYPERLINK("https://klasma.github.io/Logging_1283/tillsynsmail/A 13467-2023 tillsynsbegäran mail.docx", "A 13467-2023")</f>
         <v/>
       </c>
-      <c r="Z2">
+      <c r="Z3">
         <f>HYPERLINK("https://klasma.github.io/Logging_1283/fåglar/A 13467-2023 prioriterade fågelarter.docx", "A 13467-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="3" ht="15" customHeight="1">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>A 45325-2025</t>
-        </is>
-      </c>
-      <c r="B3" s="1" t="n">
-        <v>45922</v>
-      </c>
-      <c r="C3" s="1" t="n">
-        <v>46065</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>HELSINGBORG</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="H3" t="n">
-        <v>4</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>5</v>
-      </c>
-      <c r="R3" s="2" t="inlineStr">
-        <is>
-          <t>Nordlig buksimmare
-Större vattensalamander
-Åkergroda
-Mindre vattensalamander
-Vanlig groda</t>
-        </is>
-      </c>
-      <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1283/artfynd/A 45325-2025 artfynd.xlsx", "A 45325-2025")</f>
-        <v/>
-      </c>
-      <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1283/kartor/A 45325-2025 karta.png", "A 45325-2025")</f>
-        <v/>
-      </c>
-      <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1283/klagomål/A 45325-2025 FSC-klagomål.docx", "A 45325-2025")</f>
-        <v/>
-      </c>
-      <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1283/klagomålsmail/A 45325-2025 FSC-klagomål mail.docx", "A 45325-2025")</f>
-        <v/>
-      </c>
-      <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1283/tillsyn/A 45325-2025 tillsynsbegäran.docx", "A 45325-2025")</f>
-        <v/>
-      </c>
-      <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1283/tillsynsmail/A 45325-2025 tillsynsbegäran mail.docx", "A 45325-2025")</f>
         <v/>
       </c>
     </row>
@@ -757,7 +757,7 @@
         <v>45195</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -842,7 +842,7 @@
         <v>44725.64246527778</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -892,14 +892,14 @@
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A 5792-2024</t>
+          <t>A 2593-2024</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>45335</v>
+        <v>45313.69204861111</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -912,7 +912,7 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>5.6</v>
+        <v>2.3</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -949,14 +949,14 @@
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A 13651-2023</t>
+          <t>A 7827-2026</t>
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>45006</v>
+        <v>46062.63958333333</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -969,7 +969,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1006,14 +1006,14 @@
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A 12651-2022</t>
+          <t>A 7814-2026</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>44641</v>
+        <v>46062.61388888889</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>3.2</v>
+        <v>1.1</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1063,14 +1063,14 @@
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 2593-2024</t>
+          <t>A 12651-2022</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>45313.69204861111</v>
+        <v>44641</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1083,7 +1083,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.3</v>
+        <v>3.2</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1120,14 +1120,14 @@
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 7333-2025</t>
+          <t>A 5792-2024</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>45703.35899305555</v>
+        <v>45335</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1140,7 +1140,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>0.9</v>
+        <v>5.6</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1177,14 +1177,14 @@
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 35642-2023</t>
+          <t>A 13651-2023</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>45147</v>
+        <v>45006</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.2</v>
+        <v>2.2</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1234,14 +1234,14 @@
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 28288-2023</t>
+          <t>A 8194-2025</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>45099.6349537037</v>
+        <v>45708</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1254,7 +1254,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>0.5</v>
+        <v>1.9</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1291,14 +1291,14 @@
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 8194-2025</t>
+          <t>A 35642-2023</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>45708</v>
+        <v>45147</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1311,7 +1311,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.9</v>
+        <v>1.2</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1355,7 +1355,7 @@
         <v>45946</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1405,14 +1405,14 @@
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 7814-2026</t>
+          <t>A 28288-2023</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>46062.61388888889</v>
+        <v>45099.6349537037</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1425,7 +1425,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.1</v>
+        <v>0.5</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1462,14 +1462,14 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 7827-2026</t>
+          <t>A 7333-2025</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>46062.63958333333</v>
+        <v>45703.35899305555</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1482,7 +1482,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.1</v>
+        <v>0.9</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>

--- a/Översikt HELSINGBORG.xlsx
+++ b/Översikt HELSINGBORG.xlsx
@@ -575,7 +575,7 @@
         <v>45922</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>45005</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -757,7 +757,7 @@
         <v>45195</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -842,7 +842,7 @@
         <v>44725.64246527778</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -899,7 +899,7 @@
         <v>45313.69204861111</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -949,14 +949,14 @@
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A 7827-2026</t>
+          <t>A 12651-2022</t>
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>46062.63958333333</v>
+        <v>44641</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -969,7 +969,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.1</v>
+        <v>3.2</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1006,14 +1006,14 @@
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A 7814-2026</t>
+          <t>A 8194-2025</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>46062.61388888889</v>
+        <v>45708</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.1</v>
+        <v>1.9</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1063,14 +1063,14 @@
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 12651-2022</t>
+          <t>A 5792-2024</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>44641</v>
+        <v>45335</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1083,7 +1083,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>3.2</v>
+        <v>5.6</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1120,14 +1120,14 @@
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 5792-2024</t>
+          <t>A 50997-2025</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>45335</v>
+        <v>45946</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1140,7 +1140,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>5.6</v>
+        <v>1.5</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1177,14 +1177,14 @@
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 13651-2023</t>
+          <t>A 7827-2026</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>45006</v>
+        <v>46062.63958333333</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1234,14 +1234,14 @@
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 8194-2025</t>
+          <t>A 7814-2026</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>45708</v>
+        <v>46062.61388888889</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1254,7 +1254,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.9</v>
+        <v>1.1</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1291,14 +1291,14 @@
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 35642-2023</t>
+          <t>A 13651-2023</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>45147</v>
+        <v>45006</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1311,7 +1311,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.2</v>
+        <v>2.2</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1348,14 +1348,14 @@
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 50997-2025</t>
+          <t>A 35642-2023</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>45946</v>
+        <v>45147</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1368,7 +1368,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1412,7 +1412,7 @@
         <v>45099.6349537037</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1469,7 +1469,7 @@
         <v>45703.35899305555</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>

--- a/Översikt HELSINGBORG.xlsx
+++ b/Översikt HELSINGBORG.xlsx
@@ -575,7 +575,7 @@
         <v>45922</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>45005</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -757,7 +757,7 @@
         <v>45195</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -842,7 +842,7 @@
         <v>44725.64246527778</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -899,7 +899,7 @@
         <v>45313.69204861111</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -956,7 +956,7 @@
         <v>44641</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1013,7 +1013,7 @@
         <v>45708</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1063,14 +1063,14 @@
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 5792-2024</t>
+          <t>A 50997-2025</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>45335</v>
+        <v>45946</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1083,7 +1083,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>5.6</v>
+        <v>1.5</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1120,14 +1120,14 @@
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 50997-2025</t>
+          <t>A 5792-2024</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>45946</v>
+        <v>45335</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1140,7 +1140,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.5</v>
+        <v>5.6</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1177,14 +1177,14 @@
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 7827-2026</t>
+          <t>A 13651-2023</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>46062.63958333333</v>
+        <v>45006</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1234,14 +1234,14 @@
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 7814-2026</t>
+          <t>A 35642-2023</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>46062.61388888889</v>
+        <v>45147</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1254,7 +1254,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1291,14 +1291,14 @@
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 13651-2023</t>
+          <t>A 7827-2026</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>45006</v>
+        <v>46062.63958333333</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1311,7 +1311,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1348,14 +1348,14 @@
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 35642-2023</t>
+          <t>A 7814-2026</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>45147</v>
+        <v>46062.61388888889</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1368,7 +1368,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1412,7 +1412,7 @@
         <v>45099.6349537037</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1469,7 +1469,7 @@
         <v>45703.35899305555</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>

--- a/Översikt HELSINGBORG.xlsx
+++ b/Översikt HELSINGBORG.xlsx
@@ -575,7 +575,7 @@
         <v>45922</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>45005</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -757,7 +757,7 @@
         <v>45195</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -842,7 +842,7 @@
         <v>44725.64246527778</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -892,14 +892,14 @@
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A 2593-2024</t>
+          <t>A 5792-2024</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>45313.69204861111</v>
+        <v>45335</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -912,7 +912,7 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.3</v>
+        <v>5.6</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -949,14 +949,14 @@
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A 12651-2022</t>
+          <t>A 8194-2025</t>
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>44641</v>
+        <v>45708</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -969,7 +969,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>3.2</v>
+        <v>1.9</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1006,14 +1006,14 @@
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A 8194-2025</t>
+          <t>A 50997-2025</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>45708</v>
+        <v>45946</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.9</v>
+        <v>1.5</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1063,14 +1063,14 @@
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 50997-2025</t>
+          <t>A 12651-2022</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>45946</v>
+        <v>44641</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1083,7 +1083,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.5</v>
+        <v>3.2</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1120,14 +1120,14 @@
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 5792-2024</t>
+          <t>A 2593-2024</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>45335</v>
+        <v>45313.69204861111</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1140,7 +1140,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>5.6</v>
+        <v>2.3</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1177,14 +1177,14 @@
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 13651-2023</t>
+          <t>A 7333-2025</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>45006</v>
+        <v>45703.35899305555</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.2</v>
+        <v>0.9</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1241,7 +1241,7 @@
         <v>45147</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1291,14 +1291,14 @@
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 7827-2026</t>
+          <t>A 28288-2023</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>46062.63958333333</v>
+        <v>45099.6349537037</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1311,7 +1311,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.1</v>
+        <v>0.5</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1355,7 +1355,7 @@
         <v>46062.61388888889</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1405,14 +1405,14 @@
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 28288-2023</t>
+          <t>A 7827-2026</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>45099.6349537037</v>
+        <v>46062.63958333333</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1425,7 +1425,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>0.5</v>
+        <v>2.1</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1462,14 +1462,14 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 7333-2025</t>
+          <t>A 13651-2023</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>45703.35899305555</v>
+        <v>45006</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1482,7 +1482,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>0.9</v>
+        <v>2.2</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>

--- a/Översikt HELSINGBORG.xlsx
+++ b/Översikt HELSINGBORG.xlsx
@@ -575,7 +575,7 @@
         <v>45922</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>45005</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -757,7 +757,7 @@
         <v>45195</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -842,7 +842,7 @@
         <v>44725.64246527778</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -892,14 +892,14 @@
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A 5792-2024</t>
+          <t>A 2593-2024</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>45335</v>
+        <v>45313.69204861111</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -912,7 +912,7 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>5.6</v>
+        <v>2.3</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -949,14 +949,14 @@
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A 8194-2025</t>
+          <t>A 12651-2022</t>
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>45708</v>
+        <v>44641</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -969,7 +969,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.9</v>
+        <v>3.2</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1006,14 +1006,14 @@
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A 50997-2025</t>
+          <t>A 5792-2024</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>45946</v>
+        <v>45335</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.5</v>
+        <v>5.6</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1063,14 +1063,14 @@
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 12651-2022</t>
+          <t>A 13651-2023</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>44641</v>
+        <v>45006</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1083,7 +1083,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>3.2</v>
+        <v>2.2</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1120,14 +1120,14 @@
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 2593-2024</t>
+          <t>A 8194-2025</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>45313.69204861111</v>
+        <v>45708</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1140,7 +1140,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.3</v>
+        <v>1.9</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1177,14 +1177,14 @@
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 7333-2025</t>
+          <t>A 50997-2025</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>45703.35899305555</v>
+        <v>45946</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>0.9</v>
+        <v>1.5</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1241,7 +1241,7 @@
         <v>45147</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1291,14 +1291,14 @@
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 28288-2023</t>
+          <t>A 7827-2026</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>45099.6349537037</v>
+        <v>46062.63958333333</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1311,7 +1311,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>0.5</v>
+        <v>2.1</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1355,7 +1355,7 @@
         <v>46062.61388888889</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1405,14 +1405,14 @@
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 7827-2026</t>
+          <t>A 28288-2023</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>46062.63958333333</v>
+        <v>45099.6349537037</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1425,7 +1425,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2.1</v>
+        <v>0.5</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1462,14 +1462,14 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 13651-2023</t>
+          <t>A 7333-2025</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>45006</v>
+        <v>45703.35899305555</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1482,7 +1482,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.2</v>
+        <v>0.9</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>

--- a/Översikt HELSINGBORG.xlsx
+++ b/Översikt HELSINGBORG.xlsx
@@ -575,7 +575,7 @@
         <v>45922</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>45005</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -757,7 +757,7 @@
         <v>45195</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -842,7 +842,7 @@
         <v>44725.64246527778</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -899,7 +899,7 @@
         <v>45313.69204861111</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -956,7 +956,7 @@
         <v>44641</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1013,7 +1013,7 @@
         <v>45335</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1070,7 +1070,7 @@
         <v>45006</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1127,7 +1127,7 @@
         <v>45708</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1184,7 +1184,7 @@
         <v>45946</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1241,7 +1241,7 @@
         <v>45147</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1298,7 +1298,7 @@
         <v>46062.63958333333</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1355,7 +1355,7 @@
         <v>46062.61388888889</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1412,7 +1412,7 @@
         <v>45099.6349537037</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1469,7 +1469,7 @@
         <v>45703.35899305555</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>

--- a/Översikt HELSINGBORG.xlsx
+++ b/Översikt HELSINGBORG.xlsx
@@ -575,7 +575,7 @@
         <v>45922</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>45005</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -757,7 +757,7 @@
         <v>45195</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -842,7 +842,7 @@
         <v>44725.64246527778</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -899,7 +899,7 @@
         <v>45313.69204861111</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -956,7 +956,7 @@
         <v>44641</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1013,7 +1013,7 @@
         <v>45335</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1070,7 +1070,7 @@
         <v>45006</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1127,7 +1127,7 @@
         <v>45708</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1184,7 +1184,7 @@
         <v>45946</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1241,7 +1241,7 @@
         <v>45147</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1298,7 +1298,7 @@
         <v>46062.63958333333</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1355,7 +1355,7 @@
         <v>46062.61388888889</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1412,7 +1412,7 @@
         <v>45099.6349537037</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1469,7 +1469,7 @@
         <v>45703.35899305555</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>

--- a/Översikt HELSINGBORG.xlsx
+++ b/Översikt HELSINGBORG.xlsx
@@ -575,7 +575,7 @@
         <v>45922</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>45005</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -757,7 +757,7 @@
         <v>45195</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -842,7 +842,7 @@
         <v>44725.64246527778</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -892,14 +892,14 @@
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A 2593-2024</t>
+          <t>A 5792-2024</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>45313.69204861111</v>
+        <v>45335</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -912,7 +912,7 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.3</v>
+        <v>5.6</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -949,14 +949,14 @@
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A 12651-2022</t>
+          <t>A 7333-2025</t>
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>44641</v>
+        <v>45703.35899305555</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -969,7 +969,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>3.2</v>
+        <v>0.9</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1006,14 +1006,14 @@
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A 5792-2024</t>
+          <t>A 35642-2023</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>45335</v>
+        <v>45147</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>5.6</v>
+        <v>1.2</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1063,14 +1063,14 @@
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 13651-2023</t>
+          <t>A 28288-2023</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>45006</v>
+        <v>45099.6349537037</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1083,7 +1083,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.2</v>
+        <v>0.5</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1120,14 +1120,14 @@
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 8194-2025</t>
+          <t>A 12651-2022</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>45708</v>
+        <v>44641</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1140,7 +1140,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.9</v>
+        <v>3.2</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1177,14 +1177,14 @@
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 50997-2025</t>
+          <t>A 2593-2024</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>45946</v>
+        <v>45313.69204861111</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.5</v>
+        <v>2.3</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1234,14 +1234,14 @@
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 35642-2023</t>
+          <t>A 13651-2023</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>45147</v>
+        <v>45006</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1254,7 +1254,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.2</v>
+        <v>2.2</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1291,14 +1291,14 @@
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 7827-2026</t>
+          <t>A 8194-2025</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>46062.63958333333</v>
+        <v>45708</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1311,7 +1311,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1348,14 +1348,14 @@
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 7814-2026</t>
+          <t>A 50997-2025</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>46062.61388888889</v>
+        <v>45946</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1368,7 +1368,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.1</v>
+        <v>1.5</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1405,14 +1405,14 @@
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 28288-2023</t>
+          <t>A 7814-2026</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>45099.6349537037</v>
+        <v>46062.61388888889</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1425,7 +1425,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>0.5</v>
+        <v>1.1</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1462,14 +1462,14 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 7333-2025</t>
+          <t>A 7827-2026</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>45703.35899305555</v>
+        <v>46062.63958333333</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1482,7 +1482,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>0.9</v>
+        <v>2.1</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>

--- a/Översikt HELSINGBORG.xlsx
+++ b/Översikt HELSINGBORG.xlsx
@@ -575,7 +575,7 @@
         <v>45922</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>45005</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -757,7 +757,7 @@
         <v>45195</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -842,7 +842,7 @@
         <v>44725.64246527778</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -892,14 +892,14 @@
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A 5792-2024</t>
+          <t>A 2593-2024</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>45335</v>
+        <v>45313.69204861111</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -912,7 +912,7 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>5.6</v>
+        <v>2.3</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -949,14 +949,14 @@
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A 7333-2025</t>
+          <t>A 12651-2022</t>
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>45703.35899305555</v>
+        <v>44641</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -969,7 +969,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>0.9</v>
+        <v>3.2</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1006,14 +1006,14 @@
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A 35642-2023</t>
+          <t>A 8194-2025</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>45147</v>
+        <v>45708</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.2</v>
+        <v>1.9</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1063,14 +1063,14 @@
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 28288-2023</t>
+          <t>A 5792-2024</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>45099.6349537037</v>
+        <v>45335</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1083,7 +1083,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>0.5</v>
+        <v>5.6</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1120,14 +1120,14 @@
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 12651-2022</t>
+          <t>A 13651-2023</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>44641</v>
+        <v>45006</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1140,7 +1140,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>3.2</v>
+        <v>2.2</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1177,14 +1177,14 @@
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 2593-2024</t>
+          <t>A 50997-2025</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>45313.69204861111</v>
+        <v>45946</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.3</v>
+        <v>1.5</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1234,14 +1234,14 @@
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 13651-2023</t>
+          <t>A 35642-2023</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>45006</v>
+        <v>45147</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1254,7 +1254,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.2</v>
+        <v>1.2</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1291,14 +1291,14 @@
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 8194-2025</t>
+          <t>A 7827-2026</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>45708</v>
+        <v>46062.63958333333</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1311,7 +1311,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1348,14 +1348,14 @@
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 50997-2025</t>
+          <t>A 7814-2026</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>45946</v>
+        <v>46062.61388888889</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1368,7 +1368,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.5</v>
+        <v>1.1</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1405,14 +1405,14 @@
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 7814-2026</t>
+          <t>A 28288-2023</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>46062.61388888889</v>
+        <v>45099.6349537037</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1425,7 +1425,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.1</v>
+        <v>0.5</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1462,14 +1462,14 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 7827-2026</t>
+          <t>A 7333-2025</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>46062.63958333333</v>
+        <v>45703.35899305555</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1482,7 +1482,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.1</v>
+        <v>0.9</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>

--- a/Översikt HELSINGBORG.xlsx
+++ b/Översikt HELSINGBORG.xlsx
@@ -568,14 +568,14 @@
     <row r="2" ht="15" customHeight="1">
       <c r="A2" t="inlineStr">
         <is>
-          <t>A 45325-2025</t>
+          <t>A 13467-2023</t>
         </is>
       </c>
       <c r="B2" s="1" t="n">
-        <v>45922</v>
+        <v>45005</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -588,16 +588,16 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.6</v>
+        <v>2.3</v>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -612,7 +612,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -621,6 +621,99 @@
         <v>5</v>
       </c>
       <c r="R2" s="2" t="inlineStr">
+        <is>
+          <t>Gulsparv
+Hypoxylon petriniae
+Kråka
+Grå skärelav
+Gulnål</t>
+        </is>
+      </c>
+      <c r="S2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1283/artfynd/A 13467-2023 artfynd.xlsx", "A 13467-2023")</f>
+        <v/>
+      </c>
+      <c r="T2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1283/kartor/A 13467-2023 karta.png", "A 13467-2023")</f>
+        <v/>
+      </c>
+      <c r="V2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1283/klagomål/A 13467-2023 FSC-klagomål.docx", "A 13467-2023")</f>
+        <v/>
+      </c>
+      <c r="W2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1283/klagomålsmail/A 13467-2023 FSC-klagomål mail.docx", "A 13467-2023")</f>
+        <v/>
+      </c>
+      <c r="X2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1283/tillsyn/A 13467-2023 tillsynsbegäran.docx", "A 13467-2023")</f>
+        <v/>
+      </c>
+      <c r="Y2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1283/tillsynsmail/A 13467-2023 tillsynsbegäran mail.docx", "A 13467-2023")</f>
+        <v/>
+      </c>
+      <c r="Z2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1283/fåglar/A 13467-2023 prioriterade fågelarter.docx", "A 13467-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3" ht="15" customHeight="1">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>A 45325-2025</t>
+        </is>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>45922</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>46079</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>HELSINGBORG</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>5</v>
+      </c>
+      <c r="R3" s="2" t="inlineStr">
         <is>
           <t>Nordlig buksimmare
 Större vattensalamander
@@ -629,121 +722,28 @@
 Vanlig groda</t>
         </is>
       </c>
-      <c r="S2">
+      <c r="S3">
         <f>HYPERLINK("https://klasma.github.io/Logging_1283/artfynd/A 45325-2025 artfynd.xlsx", "A 45325-2025")</f>
         <v/>
       </c>
-      <c r="T2">
+      <c r="T3">
         <f>HYPERLINK("https://klasma.github.io/Logging_1283/kartor/A 45325-2025 karta.png", "A 45325-2025")</f>
         <v/>
       </c>
-      <c r="V2">
+      <c r="V3">
         <f>HYPERLINK("https://klasma.github.io/Logging_1283/klagomål/A 45325-2025 FSC-klagomål.docx", "A 45325-2025")</f>
         <v/>
       </c>
-      <c r="W2">
+      <c r="W3">
         <f>HYPERLINK("https://klasma.github.io/Logging_1283/klagomålsmail/A 45325-2025 FSC-klagomål mail.docx", "A 45325-2025")</f>
         <v/>
       </c>
-      <c r="X2">
+      <c r="X3">
         <f>HYPERLINK("https://klasma.github.io/Logging_1283/tillsyn/A 45325-2025 tillsynsbegäran.docx", "A 45325-2025")</f>
         <v/>
       </c>
-      <c r="Y2">
+      <c r="Y3">
         <f>HYPERLINK("https://klasma.github.io/Logging_1283/tillsynsmail/A 45325-2025 tillsynsbegäran mail.docx", "A 45325-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="3" ht="15" customHeight="1">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>A 13467-2023</t>
-        </is>
-      </c>
-      <c r="B3" s="1" t="n">
-        <v>45005</v>
-      </c>
-      <c r="C3" s="1" t="n">
-        <v>46078</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>HELSINGBORG</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="H3" t="n">
-        <v>2</v>
-      </c>
-      <c r="I3" t="n">
-        <v>2</v>
-      </c>
-      <c r="J3" t="n">
-        <v>3</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>3</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>5</v>
-      </c>
-      <c r="R3" s="2" t="inlineStr">
-        <is>
-          <t>Gulsparv
-Hypoxylon petriniae
-Kråka
-Grå skärelav
-Gulnål</t>
-        </is>
-      </c>
-      <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1283/artfynd/A 13467-2023 artfynd.xlsx", "A 13467-2023")</f>
-        <v/>
-      </c>
-      <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1283/kartor/A 13467-2023 karta.png", "A 13467-2023")</f>
-        <v/>
-      </c>
-      <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1283/klagomål/A 13467-2023 FSC-klagomål.docx", "A 13467-2023")</f>
-        <v/>
-      </c>
-      <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1283/klagomålsmail/A 13467-2023 FSC-klagomål mail.docx", "A 13467-2023")</f>
-        <v/>
-      </c>
-      <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1283/tillsyn/A 13467-2023 tillsynsbegäran.docx", "A 13467-2023")</f>
-        <v/>
-      </c>
-      <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1283/tillsynsmail/A 13467-2023 tillsynsbegäran mail.docx", "A 13467-2023")</f>
-        <v/>
-      </c>
-      <c r="Z3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1283/fåglar/A 13467-2023 prioriterade fågelarter.docx", "A 13467-2023")</f>
         <v/>
       </c>
     </row>
@@ -757,7 +757,7 @@
         <v>45195</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -842,7 +842,7 @@
         <v>44725.64246527778</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -892,14 +892,14 @@
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A 2593-2024</t>
+          <t>A 12651-2022</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>45313.69204861111</v>
+        <v>44641</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -912,7 +912,7 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.3</v>
+        <v>3.2</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -949,14 +949,14 @@
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A 12651-2022</t>
+          <t>A 5792-2024</t>
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>44641</v>
+        <v>45335</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -969,7 +969,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>3.2</v>
+        <v>5.6</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1006,14 +1006,14 @@
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A 8194-2025</t>
+          <t>A 2593-2024</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>45708</v>
+        <v>45313.69204861111</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.9</v>
+        <v>2.3</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1063,14 +1063,14 @@
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 5792-2024</t>
+          <t>A 7333-2025</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>45335</v>
+        <v>45703.35899305555</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1083,7 +1083,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>5.6</v>
+        <v>0.9</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1120,14 +1120,14 @@
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 13651-2023</t>
+          <t>A 35642-2023</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>45006</v>
+        <v>45147</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1140,7 +1140,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.2</v>
+        <v>1.2</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1177,14 +1177,14 @@
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 50997-2025</t>
+          <t>A 28288-2023</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>45946</v>
+        <v>45099.6349537037</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1234,14 +1234,14 @@
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 35642-2023</t>
+          <t>A 13651-2023</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>45147</v>
+        <v>45006</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1254,7 +1254,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.2</v>
+        <v>2.2</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1291,14 +1291,14 @@
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 7827-2026</t>
+          <t>A 8194-2025</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>46062.63958333333</v>
+        <v>45708</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1311,7 +1311,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1348,14 +1348,14 @@
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 7814-2026</t>
+          <t>A 50997-2025</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>46062.61388888889</v>
+        <v>45946</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1368,7 +1368,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.1</v>
+        <v>1.5</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1405,14 +1405,14 @@
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 28288-2023</t>
+          <t>A 7814-2026</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>45099.6349537037</v>
+        <v>46062.61388888889</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1425,7 +1425,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>0.5</v>
+        <v>1.1</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1462,14 +1462,14 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 7333-2025</t>
+          <t>A 7827-2026</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>45703.35899305555</v>
+        <v>46062.63958333333</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1482,7 +1482,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>0.9</v>
+        <v>2.1</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>

--- a/Översikt HELSINGBORG.xlsx
+++ b/Översikt HELSINGBORG.xlsx
@@ -568,14 +568,14 @@
     <row r="2" ht="15" customHeight="1">
       <c r="A2" t="inlineStr">
         <is>
-          <t>A 13467-2023</t>
+          <t>A 45325-2025</t>
         </is>
       </c>
       <c r="B2" s="1" t="n">
-        <v>45005</v>
+        <v>45922</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -588,16 +588,16 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.3</v>
+        <v>1.6</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -612,7 +612,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -621,6 +621,95 @@
         <v>5</v>
       </c>
       <c r="R2" s="2" t="inlineStr">
+        <is>
+          <t>Nordlig buksimmare
+Större vattensalamander
+Åkergroda
+Mindre vattensalamander
+Vanlig groda</t>
+        </is>
+      </c>
+      <c r="S2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1283/artfynd/A 45325-2025 artfynd.xlsx", "A 45325-2025")</f>
+        <v/>
+      </c>
+      <c r="T2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1283/kartor/A 45325-2025 karta.png", "A 45325-2025")</f>
+        <v/>
+      </c>
+      <c r="V2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1283/klagomål/A 45325-2025 FSC-klagomål.docx", "A 45325-2025")</f>
+        <v/>
+      </c>
+      <c r="W2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1283/klagomålsmail/A 45325-2025 FSC-klagomål mail.docx", "A 45325-2025")</f>
+        <v/>
+      </c>
+      <c r="X2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1283/tillsyn/A 45325-2025 tillsynsbegäran.docx", "A 45325-2025")</f>
+        <v/>
+      </c>
+      <c r="Y2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1283/tillsynsmail/A 45325-2025 tillsynsbegäran mail.docx", "A 45325-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3" ht="15" customHeight="1">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>A 13467-2023</t>
+        </is>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>45005</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>46081</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>HELSINGBORG</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+      <c r="I3" t="n">
+        <v>2</v>
+      </c>
+      <c r="J3" t="n">
+        <v>3</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>3</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>5</v>
+      </c>
+      <c r="R3" s="2" t="inlineStr">
         <is>
           <t>Gulsparv
 Hypoxylon petriniae
@@ -629,121 +718,32 @@
 Gulnål</t>
         </is>
       </c>
-      <c r="S2">
+      <c r="S3">
         <f>HYPERLINK("https://klasma.github.io/Logging_1283/artfynd/A 13467-2023 artfynd.xlsx", "A 13467-2023")</f>
         <v/>
       </c>
-      <c r="T2">
+      <c r="T3">
         <f>HYPERLINK("https://klasma.github.io/Logging_1283/kartor/A 13467-2023 karta.png", "A 13467-2023")</f>
         <v/>
       </c>
-      <c r="V2">
+      <c r="V3">
         <f>HYPERLINK("https://klasma.github.io/Logging_1283/klagomål/A 13467-2023 FSC-klagomål.docx", "A 13467-2023")</f>
         <v/>
       </c>
-      <c r="W2">
+      <c r="W3">
         <f>HYPERLINK("https://klasma.github.io/Logging_1283/klagomålsmail/A 13467-2023 FSC-klagomål mail.docx", "A 13467-2023")</f>
         <v/>
       </c>
-      <c r="X2">
+      <c r="X3">
         <f>HYPERLINK("https://klasma.github.io/Logging_1283/tillsyn/A 13467-2023 tillsynsbegäran.docx", "A 13467-2023")</f>
         <v/>
       </c>
-      <c r="Y2">
+      <c r="Y3">
         <f>HYPERLINK("https://klasma.github.io/Logging_1283/tillsynsmail/A 13467-2023 tillsynsbegäran mail.docx", "A 13467-2023")</f>
         <v/>
       </c>
-      <c r="Z2">
+      <c r="Z3">
         <f>HYPERLINK("https://klasma.github.io/Logging_1283/fåglar/A 13467-2023 prioriterade fågelarter.docx", "A 13467-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="3" ht="15" customHeight="1">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>A 45325-2025</t>
-        </is>
-      </c>
-      <c r="B3" s="1" t="n">
-        <v>45922</v>
-      </c>
-      <c r="C3" s="1" t="n">
-        <v>46079</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>HELSINGBORG</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="H3" t="n">
-        <v>4</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>5</v>
-      </c>
-      <c r="R3" s="2" t="inlineStr">
-        <is>
-          <t>Nordlig buksimmare
-Större vattensalamander
-Åkergroda
-Mindre vattensalamander
-Vanlig groda</t>
-        </is>
-      </c>
-      <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1283/artfynd/A 45325-2025 artfynd.xlsx", "A 45325-2025")</f>
-        <v/>
-      </c>
-      <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1283/kartor/A 45325-2025 karta.png", "A 45325-2025")</f>
-        <v/>
-      </c>
-      <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1283/klagomål/A 45325-2025 FSC-klagomål.docx", "A 45325-2025")</f>
-        <v/>
-      </c>
-      <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1283/klagomålsmail/A 45325-2025 FSC-klagomål mail.docx", "A 45325-2025")</f>
-        <v/>
-      </c>
-      <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1283/tillsyn/A 45325-2025 tillsynsbegäran.docx", "A 45325-2025")</f>
-        <v/>
-      </c>
-      <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1283/tillsynsmail/A 45325-2025 tillsynsbegäran mail.docx", "A 45325-2025")</f>
         <v/>
       </c>
     </row>
@@ -757,7 +757,7 @@
         <v>45195</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -842,7 +842,7 @@
         <v>44725.64246527778</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -892,14 +892,14 @@
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A 12651-2022</t>
+          <t>A 5792-2024</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>44641</v>
+        <v>45335</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -912,7 +912,7 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>3.2</v>
+        <v>5.6</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -949,14 +949,14 @@
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A 5792-2024</t>
+          <t>A 12651-2022</t>
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>45335</v>
+        <v>44641</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -969,7 +969,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>5.6</v>
+        <v>3.2</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1013,7 +1013,7 @@
         <v>45313.69204861111</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1070,7 +1070,7 @@
         <v>45703.35899305555</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1127,7 +1127,7 @@
         <v>45147</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1184,7 +1184,7 @@
         <v>45099.6349537037</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1234,14 +1234,14 @@
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 13651-2023</t>
+          <t>A 8194-2025</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>45006</v>
+        <v>45708</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1254,7 +1254,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.2</v>
+        <v>1.9</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1291,14 +1291,14 @@
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 8194-2025</t>
+          <t>A 50997-2025</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>45708</v>
+        <v>45946</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1311,7 +1311,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.9</v>
+        <v>1.5</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1348,14 +1348,14 @@
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 50997-2025</t>
+          <t>A 13651-2023</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>45946</v>
+        <v>45006</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1368,7 +1368,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.5</v>
+        <v>2.2</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1412,7 +1412,7 @@
         <v>46062.61388888889</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1469,7 +1469,7 @@
         <v>46062.63958333333</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>

--- a/Översikt HELSINGBORG.xlsx
+++ b/Översikt HELSINGBORG.xlsx
@@ -575,7 +575,7 @@
         <v>45922</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>45005</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -757,7 +757,7 @@
         <v>45195</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -842,7 +842,7 @@
         <v>44725.64246527778</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -899,7 +899,7 @@
         <v>45335</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -956,7 +956,7 @@
         <v>44641</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1013,7 +1013,7 @@
         <v>45313.69204861111</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1070,7 +1070,7 @@
         <v>45703.35899305555</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1127,7 +1127,7 @@
         <v>45147</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1184,7 +1184,7 @@
         <v>45099.6349537037</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1241,7 +1241,7 @@
         <v>45708</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1298,7 +1298,7 @@
         <v>45946</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1355,7 +1355,7 @@
         <v>45006</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1412,7 +1412,7 @@
         <v>46062.61388888889</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1469,7 +1469,7 @@
         <v>46062.63958333333</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
